--- a/Apis con datos climatologicos.xlsx
+++ b/Apis con datos climatologicos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10_Personales\Tesis\Anteproyecto Grado\20240211_Radiance &amp; Wheather\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10_Personales\Tesis\Anteproyecto Grado\20240211_Radiance &amp; Wheather\PROYECTO-IA-POTENCIALES-ENERGETICOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC1A899-E507-43DB-A5BE-644975C23EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA93E59-C490-4E64-B067-0800C221AA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB2C35E5-1C12-4FF7-883F-BC9FD0A8703B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DB2C35E5-1C12-4FF7-883F-BC9FD0A8703B}"/>
   </bookViews>
   <sheets>
     <sheet name="APIs" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +275,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -313,6 +321,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -680,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6AE07D-C98F-45B9-BC91-25B100DA7587}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -919,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8391EB-56C4-4FF9-9D20-814B90F7A9EC}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -931,17 +942,17 @@
     <col min="4" max="4" width="92.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>49</v>
       </c>
     </row>
